--- a/Tos.FoodProcs.Web/templates/shikakarihinShiyoIchiran_vi.xlsx
+++ b/Tos.FoodProcs.Web/templates/shikakarihinShiyoIchiran_vi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DuAn\FP-Lite HAINGOAI - VIET HOA\20250211_NEW\trunk\src\01_FPLite\src\C#\Tos.FoodProcs.Web\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS\FPL_VN版\src_code\trunk\src\01_FPLite\src\C#\Tos.FoodProcs.Web\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,58 +22,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Danh sách sử dụng bán thành phẩm</t>
   </si>
   <si>
-    <t>Mã bán thành phẩm　 :</t>
-  </si>
-  <si>
-    <t>Ngày sản xuất        　  :</t>
-  </si>
-  <si>
-    <t>Tên bán thành phẩm   :</t>
-  </si>
-  <si>
-    <t>Ngày giờ xuất　  　     :</t>
-  </si>
-  <si>
-    <t>Người xuất　               :</t>
-  </si>
-  <si>
     <t>Duyệt</t>
   </si>
   <si>
-    <t>Ngày sản xuất 
-bán thành phẩm</t>
-  </si>
-  <si>
-    <t>Bộ phận sản xuất 
-bán thành phẩm</t>
-  </si>
-  <si>
-    <t>Dây chuyền sản xuất 
-bán thành phẩm</t>
-  </si>
-  <si>
-    <t>Lượng sản xuất 
-bán thành phẩm</t>
-  </si>
-  <si>
-    <t>Lô</t>
-  </si>
-  <si>
-    <t>Phát hành nhãn</t>
-  </si>
-  <si>
     <t>Ngày sản xuất sản phẩm</t>
   </si>
   <si>
-    <t>Bộ phận sản xuất 
-sản phẩm</t>
-  </si>
-  <si>
     <t>Mã sản phẩm</t>
   </si>
   <si>
@@ -81,18 +40,6 @@
   </si>
   <si>
     <t>Lô sản phẩm</t>
-  </si>
-  <si>
-    <t>Mã bán thành phẩm cha</t>
-  </si>
-  <si>
-    <t>Tên bán thành phẩm cha</t>
-  </si>
-  <si>
-    <t>Lô bán thành phẩm cha</t>
-  </si>
-  <si>
-    <t>Phát hành nhãn (lẻ)</t>
   </si>
   <si>
     <t>Dây chuyền sản xuất
@@ -101,18 +48,67 @@
   <si>
     <t>Lượng sản xuất
 sản phẩm</t>
+  </si>
+  <si>
+    <t>Ngày sản xuất</t>
+  </si>
+  <si>
+    <t>Mã</t>
+  </si>
+  <si>
+    <t>Tên</t>
+  </si>
+  <si>
+    <t>Ngày giờ xuất</t>
+  </si>
+  <si>
+    <t>Người xuất</t>
+  </si>
+  <si>
+    <t>Bộ phận SX</t>
+  </si>
+  <si>
+    <t>Dây chuyền sản xuất</t>
+  </si>
+  <si>
+    <t>Lượng sản xuất</t>
+  </si>
+  <si>
+    <t>Số lô</t>
+  </si>
+  <si>
+    <t>In nhãn
+(chẵn)</t>
+  </si>
+  <si>
+    <t>In nhãn
+(lẻ)</t>
+  </si>
+  <si>
+    <t>Bộ phận SX
+sản phẩm</t>
+  </si>
+  <si>
+    <t>Mã BTP cha</t>
+  </si>
+  <si>
+    <t>Tên BTP cha</t>
+  </si>
+  <si>
+    <t>Số lô BTP cha</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
     <numFmt numFmtId="165" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="166" formatCode="#,##0_);[Red]\(#,##0\)"/>
     <numFmt numFmtId="167" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="168" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+    <numFmt numFmtId="169" formatCode="@* \:"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -228,7 +224,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -327,6 +323,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -645,7 +645,7 @@
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" colorId="18" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -694,8 +694,8 @@
       <c r="R1" s="7"/>
     </row>
     <row r="2" spans="1:18" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
+      <c r="A2" s="27" t="s">
+        <v>8</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -716,8 +716,8 @@
       <c r="R2" s="7"/>
     </row>
     <row r="3" spans="1:18" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="A3" s="27" t="s">
+        <v>9</v>
       </c>
       <c r="B3" s="4"/>
       <c r="D3" s="2"/>
@@ -737,8 +737,8 @@
       <c r="R3" s="7"/>
     </row>
     <row r="4" spans="1:18" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
+      <c r="A4" s="27" t="s">
+        <v>10</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -779,8 +779,8 @@
       <c r="R5" s="7"/>
     </row>
     <row r="6" spans="1:18" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>4</v>
+      <c r="A6" s="27" t="s">
+        <v>11</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="4"/>
@@ -801,8 +801,8 @@
       <c r="R6" s="7"/>
     </row>
     <row r="7" spans="1:18" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>5</v>
+      <c r="A7" s="27" t="s">
+        <v>12</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="4"/>
@@ -844,58 +844,58 @@
     </row>
     <row r="9" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="L9" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="12" t="s">
+      <c r="O9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" s="13" t="s">
+      <c r="R9" s="14" t="s">
         <v>22</v>
-      </c>
-      <c r="L9" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="M9" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="N9" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="O9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="P9" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q9" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="R9" s="14" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
